--- a/src/original_data/origin_country/origin_areas.xlsx
+++ b/src/original_data/origin_country/origin_areas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>origin</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Uganda</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,6 +1557,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:E62">
     <sortCondition ref="A2"/>
